--- a/SFRequestDataExcel/SFRequestData11062024.xlsx
+++ b/SFRequestDataExcel/SFRequestData11062024.xlsx
@@ -462,52 +462,6 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
-      <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
